--- a/biology/Médecine/Boroscope/Boroscope.xlsx
+++ b/biology/Médecine/Boroscope/Boroscope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le boroscope est un appareil permettant de voir dans des endroits extrêmement petits et difficiles d'accès.
 Un boroscope est constitué d'un tube rigide ou flexible abritant les relais optiques depuis l'extrémité distale jusqu'à l'oculaire de visualisation.
